--- a/data/income_statement/2digits/total/26_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/26_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>26-Manufacture of computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>26-Manufacture of computer, electronic and optical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,56 +841,66 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6810561.61519</v>
+        <v>6810561.615190001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7257622.92103</v>
+        <v>7257622.921030001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9531472.01753</v>
+        <v>9531472.017530002</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10810093.03121</v>
+        <v>10811223.73733</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11516796.72065</v>
+        <v>11529273.76822</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13935628.13757</v>
+        <v>13948232.18367</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9745822.269129997</v>
+        <v>16072119.31767</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>17994606.51679</v>
+        <v>17997246.93471</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>22414782.59005</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>31133437.85571001</v>
+        <v>31143392.74397999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>39525803.61390001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>39633545.40617</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>49310570.678</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3458268.726049999</v>
+        <v>3458268.72605</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>3938091.74962</v>
@@ -998,34 +909,39 @@
         <v>4917958.919169999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5696182.107289999</v>
+        <v>5696417.495720001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6271658.316849999</v>
+        <v>6283492.72141</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7173718.534700001</v>
+        <v>7185863.29152</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6894561.13796</v>
+        <v>8721893.882310001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>11624643.76025</v>
+        <v>11626655.18016</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>15151360.79434</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20526546.52748</v>
+        <v>20532621.16404</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>27194479.90099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27293350.50369</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>35640217.095</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3251251.73812</v>
@@ -1034,58 +950,63 @@
         <v>3242418.94289</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4547273.62495</v>
+        <v>4547273.624950001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5045518.368810001</v>
+        <v>5045908.73291</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>5167223.611529999</v>
+        <v>5167688.15117</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6672152.233639999</v>
+        <v>6672521.097099999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2759940.10412</v>
+        <v>7238945.00379</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6220416.597150001</v>
+        <v>6221045.595159999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7112114.975269999</v>
+        <v>7112114.975270001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10375718.20342</v>
+        <v>10379436.05902</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>12008594.8724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12015150.41131</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13348767.535</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>101041.15102</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>77112.22852</v>
+        <v>77112.22851999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>66239.47341000001</v>
+        <v>66239.47340999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>68392.55511000002</v>
+        <v>68897.50870000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>77914.79227000001</v>
+        <v>78092.89564</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>89757.36922999998</v>
+        <v>89847.79505000002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>91321.02705</v>
+        <v>111280.43157</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>149546.15939</v>
@@ -1094,16 +1015,21 @@
         <v>151306.82044</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>231173.12481</v>
+        <v>231335.52092</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>322728.84051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>325044.49117</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>321586.048</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>104637.16736</v>
@@ -1112,76 +1038,86 @@
         <v>139459.38017</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>170417.7135</v>
+        <v>170417.7135000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>239048.37713</v>
+        <v>239052.35122</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>281318.536</v>
+        <v>281461.84619</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>388160.08649</v>
+        <v>388285.1899</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>401068.61042</v>
+        <v>482058.0556799999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>483937.94985</v>
+        <v>483971.1611800001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>750455.4783999999</v>
+        <v>750455.4784</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1122723.62134</v>
+        <v>1122726.81026</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1477242.68684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1496087.4376</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1356467.765</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>57356.10422</v>
+        <v>57356.10421999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>44401.22101</v>
+        <v>44401.22101000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>57802.79024999999</v>
+        <v>57802.79024999998</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>89892.21712</v>
+        <v>89892.7782</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>113309.51896</v>
+        <v>113452.82915</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>136040.09354</v>
+        <v>136161.37983</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>161008.48464</v>
+        <v>198514.76389</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>165622.83243</v>
+        <v>165654.87223</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>216673.30818</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>485577.70201</v>
+        <v>485580.89093</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1053404.42246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1072234.47686</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>680482.811</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>40260.13442</v>
@@ -1193,19 +1129,19 @@
         <v>109438.69028</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>131651.60201</v>
+        <v>131655.01502</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>144417.61961</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>231515.52393</v>
+        <v>231519.34105</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>219618.0845700001</v>
+        <v>263101.25058</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>288029.35978</v>
+        <v>288030.5313099999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>476758.33826</v>
@@ -1216,17 +1152,22 @@
       <c r="M11" s="48" t="n">
         <v>361673.1639700001</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>604393.4449999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>7020.928720000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>8737.355949999999</v>
+        <v>8737.355950000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>3176.23297</v>
@@ -1253,112 +1194,127 @@
         <v>51553.82141999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>62165.10041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>62179.79677</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>71591.50900000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6705924.44783</v>
+        <v>6705924.447829999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7118163.54086</v>
+        <v>7118163.540860001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9361054.304030001</v>
+        <v>9361054.304029999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10571044.65408</v>
+        <v>10572171.38611</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11235478.18465</v>
+        <v>11247811.92203</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>13547468.05108</v>
+        <v>13559946.99377</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9344753.658709997</v>
+        <v>15590061.26199</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>17510668.56693999</v>
+        <v>17513275.77353</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>21664327.11165</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>30010714.23437</v>
+        <v>30020665.93372</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>38048560.92705999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>38137457.96857</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>47954102.913</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5286660.942299999</v>
+        <v>5286660.9423</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5899921.416270001</v>
+        <v>5899921.41627</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7554773.540150003</v>
+        <v>7554773.54015</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8852782.20346</v>
+        <v>8853190.348680001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9033392.963409998</v>
+        <v>9043060.42049</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10944573.00295</v>
+        <v>10954511.02599</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7283922.431869999</v>
+        <v>12245533.74228</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13460443.36137</v>
+        <v>13461733.67856</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>16754745.17934</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>21081924.14287</v>
+        <v>21088832.09696</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>27100373.02255999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>27139375.03653</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>33294556.015</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4123408.05664</v>
+        <v>4123408.056640001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4601863.522600001</v>
+        <v>4601863.522600002</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>6083463.526430001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7206916.630429999</v>
+        <v>7207071.856620001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7137744.66972</v>
+        <v>7147222.424090001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9093023.718039999</v>
+        <v>9101399.385409998</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5710254.338859999</v>
+        <v>10345352.26655</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>11018805.90033</v>
@@ -1367,94 +1323,109 @@
         <v>13787313.94015</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>17273576.39579</v>
+        <v>17275170.94614</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>22214089.90692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22237663.9391</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>25962539.851</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>691614.65887</v>
+        <v>691614.6588699999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>754547.1674000003</v>
+        <v>754547.1674000002</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>758223.57299</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>791269.06761</v>
+        <v>791510.0633899999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>812897.99198</v>
+        <v>812926.73454</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>922543.8966200001</v>
+        <v>923777.06575</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>932378.00726</v>
+        <v>934984.30967</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1075707.10663</v>
+        <v>1076930.05794</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1202885.6733</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1541507.17326</v>
+        <v>1546367.68963</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1997957.74796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2007067.39489</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3439906.904</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>302091.1195399999</v>
+        <v>302091.11954</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>376616.2271</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>509569.30575</v>
+        <v>509569.3057499999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>608751.3116200001</v>
+        <v>608763.23487</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>825078.92814</v>
+        <v>825183.42191</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>640451.2651900001</v>
+        <v>640752.4752900001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>563076.04565</v>
+        <v>739604.6265799999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>975816.8626700002</v>
+        <v>975816.8626699999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1197554.54235</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1697978.81338</v>
+        <v>1698431.70075</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2056709.6298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2059651.45402</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2881855.681</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>169547.10725</v>
@@ -1469,31 +1440,36 @@
         <v>245845.1938</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>257671.37357</v>
+        <v>257727.83995</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>288554.1231000001</v>
+        <v>288582.09954</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>78214.0401</v>
+        <v>225592.53948</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>390113.49174</v>
+        <v>390180.85762</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>566991.02354</v>
+        <v>566991.0235399998</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>568861.76044</v>
+        <v>568861.7604400001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>831615.7378799999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>834992.24852</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1010253.579</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1419263.50553</v>
@@ -1505,73 +1481,83 @@
         <v>1806280.76388</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1718262.45062</v>
+        <v>1718981.03743</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2202085.22124</v>
+        <v>2204751.50154</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2602895.04813</v>
+        <v>2605435.96778</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2060831.22684</v>
+        <v>3344527.519709999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4050225.20557</v>
+        <v>4051542.09497</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4909581.932310001</v>
+        <v>4909581.932309999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8928790.091499999</v>
+        <v>8931833.836759998</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10948187.9045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10998082.93204</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>14659546.898</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>646269.1264500001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>705720.20336</v>
+        <v>705720.2033599999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>963266.58964</v>
+        <v>963266.5896399999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1056335.96924</v>
+        <v>1057030.5741</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1174900.88315</v>
+        <v>1176730.77495</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1446264.20143</v>
+        <v>1448448.45011</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1035026.81725</v>
+        <v>1592572.7293</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1884705.84374</v>
+        <v>1886094.24735</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2319527.157770001</v>
+        <v>2319527.15777</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2929688.231</v>
+        <v>2935643.79989</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3736372.01164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3746667.895870001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4793004.597</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>90204.88774999999</v>
@@ -1586,31 +1572,36 @@
         <v>188147.34723</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>222386.77894</v>
+        <v>222504.68409</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>258273.80241</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>150144.33847</v>
+        <v>291268.72908</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>350847.8358300001</v>
+        <v>350847.83583</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>432581.17154</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>528412.0027300001</v>
+        <v>528941.3289</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>667529.4918100002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>669190.20085</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>883488.007</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>266353.71668</v>
@@ -1622,37 +1613,42 @@
         <v>373401.4607</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>416705.1763700001</v>
+        <v>416711.1163700001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>433249.9495500001</v>
+        <v>433734.47947</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>552258.69682</v>
+        <v>552549.58416</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>370513.95517</v>
+        <v>606299.1466600001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>740602.9744899999</v>
+        <v>741449.24499</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>896830.0046500001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1209329.71486</v>
+        <v>1209431.38304</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1581257.57983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1582165.37169</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2056943.967</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>289710.52202</v>
+        <v>289710.5220199999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>311626.51612</v>
@@ -1661,73 +1657,83 @@
         <v>445753.34442</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>451483.44564</v>
+        <v>452172.1105</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>519264.1546599999</v>
+        <v>520491.6113899999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>635731.7021999999</v>
+        <v>637625.0635400001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>514368.5236100001</v>
+        <v>695004.8535600002</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>793255.0334200001</v>
+        <v>793797.1665299998</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>990115.98158</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1191946.51341</v>
+        <v>1197271.08795</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1487584.94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1495312.32333</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1852572.623</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>772994.3790800001</v>
+        <v>772994.3790799999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>512521.92123</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>843014.1742400001</v>
+        <v>843014.1742400002</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>661926.48138</v>
+        <v>661950.4633300001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1027184.33809</v>
+        <v>1028020.72659</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1156630.8467</v>
+        <v>1156987.51767</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1025804.40959</v>
+        <v>1751954.79041</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2165519.361830001</v>
+        <v>2165447.84762</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2590054.774540001</v>
+        <v>2590054.77454</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5999101.860500001</v>
+        <v>5996190.03687</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7211815.892860001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7251415.03617</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9866542.301000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1028596.63657</v>
@@ -1739,34 +1745,39 @@
         <v>1529788.1529</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1382510.13795</v>
+        <v>1382559.69111</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1001822.03112</v>
+        <v>1002056.91853</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1566497.23446</v>
+        <v>1566923.99553</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1185611.59298</v>
+        <v>2241795.35267</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2165396.04796</v>
+        <v>2165784.86837</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4875875.764930001</v>
+        <v>4875875.76493</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>14612744.68686</v>
+        <v>14614495.00509</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8219700.916099999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8258956.16281</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14400493.492</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>19045.97682</v>
@@ -1787,25 +1798,30 @@
         <v>12865.11736</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2106.23406</v>
+        <v>2143.73406</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>24241.54644</v>
+        <v>24241.54644000001</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>49317.51297</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>86157.40905000002</v>
+        <v>86157.40905</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>159457.23679</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>187229.773</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15355.74236</v>
@@ -1826,7 +1842,7 @@
         <v>23841.48092</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>575.35531</v>
+        <v>99763.04355</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>134570.80628</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>592830.0112199999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>146732.221</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>41756.37445</v>
@@ -1853,37 +1874,42 @@
         <v>71067.04965999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>77757.77855999999</v>
+        <v>77757.77856000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>105909.60843</v>
+        <v>105918.64142</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>71457.76887</v>
+        <v>71467.02734999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>71050.22154000001</v>
+        <v>71051.95281</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>38356.54181</v>
+        <v>79595.33662</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>141336.09603</v>
+        <v>141336.44124</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>246753.06916</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>860341.8735400001</v>
+        <v>860350.6407999998</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>607614.1779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>610701.6538</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>450039.716</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>285.24028</v>
@@ -1904,7 +1930,7 @@
         <v>777.70044</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>20.94965</v>
+        <v>1481.49806</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2130.85966</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1060.89101</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3026.567</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>8115.91525</v>
@@ -1931,37 +1962,42 @@
         <v>3681.88706</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>5664.29302</v>
+        <v>5664.293019999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>33559.49443</v>
+        <v>33562.1753</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4246.114140000001</v>
+        <v>4246.11414</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4204.810769999999</v>
+        <v>4207.310769999999</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>3730.542640000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6353.907180000001</v>
+        <v>6353.90718</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6875.383269999999</v>
+        <v>6875.38327</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>31341.97743</v>
+        <v>31349.36526</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>16597.54865</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>80924.007</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>31554.75191</v>
@@ -1973,7 +2009,7 @@
         <v>420.67565</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>9570.205759999997</v>
+        <v>9570.205759999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>418.04721</v>
@@ -1982,13 +2018,13 @@
         <v>315.0862</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>146628.79013</v>
+        <v>148669.39553</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>452.42264</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6388.13792</v>
+        <v>6388.137920000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>1545.14241</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>1666.73673</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>257080.311</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>588493.1457900001</v>
+        <v>588493.14579</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>779826.6418699999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>934169.8164599999</v>
+        <v>934169.81646</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>724987.1375600001</v>
+        <v>725024.9768600001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>770286.4133500002</v>
+        <v>770331.3862999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1244613.03896</v>
+        <v>1244834.52512</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>939622.8650999998</v>
+        <v>1549692.08598</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1478087.87067</v>
+        <v>1478476.34587</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3937749.80076</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11604450.67881</v>
+        <v>11606173.78166</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6418397.89518</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6454451.15336</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12939581.74</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>272.6480500000001</v>
@@ -2057,13 +2103,13 @@
         <v>2793.5236</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>6919.60904</v>
+        <v>6925.726730000001</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>4484.84624</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3864.343519999999</v>
+        <v>3864.34352</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>1786.23009</v>
@@ -2072,13 +2118,18 @@
         <v>4467.13172</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>4853.95834</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>4853.958340000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2510.77</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>14.66183</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>323702.1798300001</v>
+        <v>323702.1798299999</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>425213.87787</v>
@@ -2132,70 +2188,80 @@
         <v>492327.65296</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>118504.9557</v>
+        <v>118685.61168</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>201910.1692300001</v>
+        <v>202105.09518</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>50085.46804000001</v>
+        <v>352234.86999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>374271.9056499999</v>
+        <v>374271.90565</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>448744.1396899999</v>
+        <v>448744.13969</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1775030.78025</v>
+        <v>1775041.84054</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>417222.4602800001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>417336.9729099999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>333368.387</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>833731.8012900002</v>
+        <v>833731.8012900001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>909171.7572000001</v>
+        <v>909171.7572</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>1419071.17775</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1021179.07963</v>
+        <v>1021231.8562</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1135751.46147</v>
+        <v>1136021.58674</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1429553.52084</v>
+        <v>1429611.23652</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1427860.67575</v>
+        <v>2096461.82513</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2147760.94848</v>
+        <v>2148601.59993</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>4393062.639049999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13615444.76909</v>
+        <v>13616424.84596</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7279198.336049999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7297233.512549998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13454098.579</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3638.875</v>
@@ -2207,34 +2273,39 @@
         <v>3805.98913</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3529.972410000001</v>
+        <v>3529.97241</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>775.27662</v>
+        <v>775.2766200000001</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>1915.14159</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1680.87492</v>
+        <v>1689.28629</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1436.4506</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4187.1895</v>
+        <v>4187.189499999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6728.10481</v>
+        <v>6728.462100000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>24678.51354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>25586.55366</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>52932.017</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>24352.15096</v>
@@ -2243,37 +2314,42 @@
         <v>19717.78655</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>80091.37603999999</v>
+        <v>80091.37603999997</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>39335.01401</v>
+        <v>39335.01401000001</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>37324.07911999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>42731.78647999999</v>
+        <v>42744.28647999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>65699.9442</v>
+        <v>65874.78598</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>80466.06357</v>
+        <v>80608.16226</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>87576.91855999999</v>
+        <v>87576.91856000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>111679.98021</v>
+        <v>111899.16101</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>211410.98404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>211494.79697</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>288583.032</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.08923</v>
@@ -2285,10 +2361,10 @@
         <v>6186.134869999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4670.264260000001</v>
+        <v>4670.26426</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>8835.7084</v>
+        <v>8835.708400000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>78.54819000000001</v>
@@ -2306,16 +2382,21 @@
         <v>13652.24536</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>327.5609200000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>327.56092</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1832.819</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>497355.7789000001</v>
+        <v>497355.7789</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>536697.09982</v>
@@ -2324,34 +2405,39 @@
         <v>898797.3131500001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>552009.43008</v>
+        <v>552062.2066500001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>993508.1728099998</v>
+        <v>993778.2980800001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1182144.32263</v>
+        <v>1182183.25468</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1350268.69792</v>
+        <v>1845850.49961</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1850322.035540001</v>
+        <v>1851020.5883</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3944613.369279999</v>
+        <v>3944613.36928</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12563177.45897</v>
+        <v>12563937.99774</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6560736.048490001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6577025.36071</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12995154.109</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>272.15686</v>
@@ -2366,10 +2452,10 @@
         <v>234.4808</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>4692.602680000001</v>
+        <v>4692.60268</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6412.02591</v>
+        <v>6418.30954</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>4403.312239999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4501.592390000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3289.615</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>0.85029</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>308106.7503399999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>342780.89616</v>
+        <v>342780.8961599999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>429937.1846900001</v>
+        <v>429937.18469</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>419378.0604399999</v>
+        <v>419378.06044</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>90615.62183999999</v>
@@ -2450,67 +2546,77 @@
         <v>196271.696</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5793.19989</v>
+        <v>178629.29443</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>213212.4165200001</v>
+        <v>213212.41652</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>354637.48703</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>917272.2901699999</v>
+        <v>917272.29018</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>477542.78638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>478296.79761</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>112306.987</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>469732.4214600001</v>
+        <v>469732.42146</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>505499.2640199999</v>
+        <v>505499.26402</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>652662.2675000001</v>
+        <v>652662.2674999998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>248979.73209</v>
+        <v>248988.33337</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>651654.8785799999</v>
+        <v>651846.38315</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>440963.5939099999</v>
+        <v>442031.99374</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>226432.48378</v>
+        <v>978907.2114500002</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>929099.1769899998</v>
+        <v>929127.00255</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>987586.8649999999</v>
+        <v>987586.8650000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2840951.103739999</v>
+        <v>2840977.13912</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1937671.89941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1941596.17544</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2412943.345</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>439086.96249</v>
+        <v>439086.9624899999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>403639.14654</v>
@@ -2519,34 +2625,39 @@
         <v>532382.7217699999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>211391.2803</v>
+        <v>211399.88158</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>461636.1041699999</v>
+        <v>461827.60874</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>328534.19989</v>
+        <v>329602.5997199999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>175814.18091</v>
+        <v>658927.6486600001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>667262.1592399998</v>
+        <v>667289.9848</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>736224.44699</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2321743.48068</v>
+        <v>2321769.51606</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1725612.10547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1729536.3815</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2038487.299</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>30645.45897</v>
@@ -2567,7 +2678,7 @@
         <v>112429.39402</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>50618.30287</v>
+        <v>319979.5627899999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>261837.01775</v>
@@ -2576,55 +2687,65 @@
         <v>251362.41801</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>519207.62306</v>
+        <v>519207.6230600001</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>212059.79394</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>374456.046</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>498126.7929000001</v>
+        <v>498126.7929</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>488320.0780800002</v>
+        <v>488320.0780800001</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>301068.88189</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>774277.80761</v>
+        <v>774289.9648699999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>241600.02916</v>
+        <v>242209.67523</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>852610.9664100001</v>
+        <v>852268.2829399999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>557122.8430400001</v>
+        <v>918381.1065000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1254055.28432</v>
+        <v>1253504.11351</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2085281.03542</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4155450.674529999</v>
+        <v>4153283.05688</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6214646.573499999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6271541.510989999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8399993.869000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>21103.18523</v>
@@ -2633,37 +2754,42 @@
         <v>22724.74106</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>41254.21707999999</v>
+        <v>41254.21708</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>111822.99749</v>
+        <v>111838.51341</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>51251.77430999999</v>
+        <v>51383.06678</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>51956.00868999999</v>
+        <v>52018.22372000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>78608.01155999998</v>
+        <v>96283.76022</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>81022.63926000001</v>
+        <v>81069.67084000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>98405.97117999999</v>
+        <v>98405.97118000002</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>193842.91878</v>
+        <v>193910.42197</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>161863.94697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>161943.00797</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>360633.146</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>918.60581</v>
@@ -2675,16 +2801,16 @@
         <v>1296.8275</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>977.3136599999999</v>
+        <v>977.31366</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>357.99688</v>
+        <v>432.56378</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2428.583779999999</v>
+        <v>2428.58378</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1820.33919</v>
+        <v>2628.36994</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3400.57359</v>
@@ -2698,50 +2824,60 @@
       <c r="M49" s="48" t="n">
         <v>3885.20226</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>39960.394</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>20184.57941999999</v>
+        <v>20184.57942</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>21953.95415</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>39957.38958</v>
+        <v>39957.38957999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>110845.68383</v>
+        <v>110861.19975</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>50893.77742999999</v>
+        <v>50950.503</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>49527.42490999999</v>
+        <v>49589.63994000002</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>76787.67236999999</v>
+        <v>93655.39027999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>77622.06567</v>
+        <v>77669.09725000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>94605.54092999999</v>
+        <v>94605.54093</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>190811.67478</v>
+        <v>190879.17797</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>157978.74471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>158057.80571</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>320672.752</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>51436.77052999999</v>
@@ -2750,49 +2886,54 @@
         <v>34820.54686000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>178519.4371400001</v>
+        <v>178519.43714</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>50843.72607</v>
+        <v>50854.45241999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>88292.95869</v>
+        <v>88421.95370999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>135236.21493</v>
+        <v>135268.22911</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>61563.63658000001</v>
+        <v>123774.01644</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>227742.37501</v>
+        <v>227836.84285</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>129032.41203</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>481475.35543</v>
+        <v>491198.6705000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>308294.8980699999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>309037.65417</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>528802.916</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9876.611469999998</v>
+        <v>9876.611470000002</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>4289.6494</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4184.656239999999</v>
+        <v>4184.65624</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3700.60055</v>
+        <v>3700.600550000001</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>17914.09864</v>
@@ -2801,10 +2942,10 @@
         <v>30672.49051</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10698.68986</v>
+        <v>34176.41744</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>34765.07715999999</v>
+        <v>34765.07716</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>33913.65994999999</v>
@@ -2813,13 +2954,18 @@
         <v>54729.39187000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>55434.70960000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>55434.70959999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>153656.397</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3392.34353</v>
@@ -2834,70 +2980,80 @@
         <v>5600.529749999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5811.377990000001</v>
+        <v>5899.396719999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8394.874599999999</v>
+        <v>8394.910169999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6158.24501</v>
+        <v>10990.72023</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10989.98086</v>
+        <v>10990.24711</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>12439.77541</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16880.73954</v>
+        <v>16908.57906000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>26058.83527999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>26075.6488</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>23941.624</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>38167.81553</v>
+        <v>38167.81553000001</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>28150.7948</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>171959.2005100001</v>
+        <v>171959.20051</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>41542.59577</v>
+        <v>41553.32212</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>64567.48206</v>
+        <v>64608.45835</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>96168.84981999999</v>
+        <v>96200.82842999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44706.70171</v>
+        <v>78606.87877000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>181987.31699</v>
+        <v>182081.51858</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>82678.97667000002</v>
+        <v>82678.97667</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>409865.22402</v>
+        <v>419560.6995700001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>226801.35319</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>227527.29577</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>351204.895</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>467793.2076</v>
@@ -2906,37 +3062,42 @@
         <v>476224.27228</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>163803.6618299999</v>
+        <v>163803.6618300001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>835257.07903</v>
+        <v>835274.0258600001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>204558.8447800001</v>
+        <v>205170.7883</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>769330.76017</v>
+        <v>769018.2775500001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>574167.2180199999</v>
+        <v>890890.8502800001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1107335.54857</v>
+        <v>1106736.9415</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2054654.59457</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3867818.23788</v>
+        <v>3855994.808350001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6068215.622400001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6124446.864790001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8231824.099</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>29940.19113</v>
@@ -2948,37 +3109,42 @@
         <v>37141.52967</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>35442.48532</v>
+        <v>35448.21996</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>43836.78601</v>
+        <v>44035.81238000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>59735.22711</v>
+        <v>59740.15643000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>69076.79834000002</v>
+        <v>79939.91870000002</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>74471.00471999997</v>
+        <v>74471.00472</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>100974.14066</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>168299.32158</v>
+        <v>168949.47492</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>191851.87537</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>199236.73208</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>300657.448</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>437853.01647</v>
+        <v>437853.0164699999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>444570.9594599999</v>
@@ -2987,31 +3153,34 @@
         <v>126662.13216</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>799814.59371</v>
+        <v>799825.8058999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>160722.05877</v>
+        <v>161134.97592</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>709595.53306</v>
+        <v>709278.1211199999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>505090.4196799999</v>
+        <v>810950.93158</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1032864.54385</v>
+        <v>1032265.93678</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1953680.45391</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3699518.9163</v>
+        <v>3687045.33343</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5876363.747030001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5925210.132710001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7931166.651</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>736</v>
@@ -3041,31 +3213,34 @@
         <v>784</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1106</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1050</v>
+        <v>1173</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1334</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>